--- a/Data DTTI/7.Surat Order Perjalanan Dinas (FM-SET-07) - .xlsx
+++ b/Data DTTI/7.Surat Order Perjalanan Dinas (FM-SET-07) - .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" tabRatio="598" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Jl. Gegerkalong Girang Baru No. 4 Bandung 40154</t>
   </si>
@@ -180,13 +180,16 @@
   </si>
   <si>
     <t>3. Nurhayati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +484,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,8 +516,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,6 +524,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -888,6 +896,47 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2190750</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>3028950</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -931,6 +980,47 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1009,6 +1099,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1043,6 +1134,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1218,14 +1310,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.85546875" style="1" customWidth="1"/>
@@ -1235,52 +1327,52 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="25" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickTop="1">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1380,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1391,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1310,12 +1402,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
@@ -1323,7 +1415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1332,21 +1424,21 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1356,21 +1448,21 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1380,12 +1472,12 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,25 +1489,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="14"/>
       <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>
       <c r="E22" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
       <c r="E23" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="C24" s="14"/>
       <c r="D24" s="2"/>
@@ -1423,7 +1515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1432,12 +1524,12 @@
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -1446,35 +1538,35 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1494,20 +1586,44 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="CorelDRAW.Graphic.14" shapeId="1025" r:id="rId4"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="CorelDRAW.Graphic.14" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>2190750</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>3028950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="CorelDRAW.Graphic.14" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
@@ -1516,31 +1632,31 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1550,7 +1666,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1560,7 +1676,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1582,7 +1698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1593,10 +1709,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1607,54 +1723,57 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="75" customHeight="1">
+    <row r="13" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" ht="60" customHeight="1">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="S14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1676,7 +1795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1687,117 +1806,117 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:8" ht="117.75" customHeight="1">
+    <row r="19" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="36">
         <v>41771</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34">
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36">
         <v>41771</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="35" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1822,7 +1941,31 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="CorelDRAW.Graphic.14" shapeId="2049" r:id="rId4"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="CorelDRAW.Graphic.14" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="CorelDRAW.Graphic.14" shapeId="2049" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>